--- a/Doc/AD2S83/AD2S83模拟部分参数计算.xlsx
+++ b/Doc/AD2S83/AD2S83模拟部分参数计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\05_Project_Design\42_AD2S83\Doc\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E96D6B8-BF59-4386-9C33-6DFD3BF8615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748B411-618D-4F59-B7A5-5DAB0B76285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,7 +654,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,9 +824,15 @@
         <v>22</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
